--- a/app/armor_list.xlsx
+++ b/app/armor_list.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11595" windowWidth="25755" xWindow="360" yWindow="30"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Armor" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Armor" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill" sheetId="2" r:id="rId2"/>
+    <sheet name="Accessory" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1787">
   <si>
     <t>레더헤드</t>
   </si>
@@ -5080,6 +5081,303 @@
   </si>
   <si>
     <t>Lv.1 : 특정 조건에서 회심률 +10% 스태미나 소비량 10% 감소Lv.2 : 특정 조건에서 회심률 +20% 스태미나 소비량 20% 감소Lv.3 : 특정 조건에서 회심률 +30% 스태미나 소비량 30% 감소Lv.4 : 특정 조건에서 회심률 +40% 스태미나 소비량 40% 감소Lv.5 : 특정 조건에서 회심률 +50% 스태미나 소비량 50% 감소</t>
+  </si>
+  <si>
+    <t>KO주</t>
+  </si>
+  <si>
+    <t>전체5678</t>
+  </si>
+  <si>
+    <t>가호주</t>
+  </si>
+  <si>
+    <t>강궁주</t>
+  </si>
+  <si>
+    <t>강벽주</t>
+  </si>
+  <si>
+    <t>강인주</t>
+  </si>
+  <si>
+    <t>강주주</t>
+  </si>
+  <si>
+    <t>강탄주</t>
+  </si>
+  <si>
+    <t>고양주</t>
+  </si>
+  <si>
+    <t>고적주</t>
+  </si>
+  <si>
+    <t>공격주</t>
+  </si>
+  <si>
+    <t>공복주</t>
+  </si>
+  <si>
+    <t>관통주</t>
+  </si>
+  <si>
+    <t>궁지주</t>
+  </si>
+  <si>
+    <t>내독주</t>
+  </si>
+  <si>
+    <t>내뢰주</t>
+  </si>
+  <si>
+    <t>내룡주</t>
+  </si>
+  <si>
+    <t>내면주</t>
+  </si>
+  <si>
+    <t>내방주</t>
+  </si>
+  <si>
+    <t>내비주</t>
+  </si>
+  <si>
+    <t>내빙주</t>
+  </si>
+  <si>
+    <t>내속주</t>
+  </si>
+  <si>
+    <t>내수주</t>
+  </si>
+  <si>
+    <t>내열주</t>
+  </si>
+  <si>
+    <t>내장주</t>
+  </si>
+  <si>
+    <t>내절주</t>
+  </si>
+  <si>
+    <t>내진주</t>
+  </si>
+  <si>
+    <t>내충주</t>
+  </si>
+  <si>
+    <t>내폭주</t>
+  </si>
+  <si>
+    <t>내화주</t>
+  </si>
+  <si>
+    <t>뇌광주</t>
+  </si>
+  <si>
+    <t>단축주</t>
+  </si>
+  <si>
+    <t>달인주</t>
+  </si>
+  <si>
+    <t>도약주</t>
+  </si>
+  <si>
+    <t>도전주</t>
+  </si>
+  <si>
+    <t>독병주</t>
+  </si>
+  <si>
+    <t>독주</t>
+  </si>
+  <si>
+    <t>마비병주</t>
+  </si>
+  <si>
+    <t>마비주</t>
+  </si>
+  <si>
+    <t>무격주</t>
+  </si>
+  <si>
+    <t>무결주</t>
+  </si>
+  <si>
+    <t>발도주</t>
+  </si>
+  <si>
+    <t>방어주</t>
+  </si>
+  <si>
+    <t>방음주</t>
+  </si>
+  <si>
+    <t>방풍주</t>
+  </si>
+  <si>
+    <t>비연주</t>
+  </si>
+  <si>
+    <t>빙결주</t>
+  </si>
+  <si>
+    <t>산탄주</t>
+  </si>
+  <si>
+    <t>소도주</t>
+  </si>
+  <si>
+    <t>속납주</t>
+  </si>
+  <si>
+    <t>수면병주</t>
+  </si>
+  <si>
+    <t>수면주</t>
+  </si>
+  <si>
+    <t>식학주</t>
+  </si>
+  <si>
+    <t>심안주</t>
+  </si>
+  <si>
+    <t>역경주</t>
+  </si>
+  <si>
+    <t>역상주</t>
+  </si>
+  <si>
+    <t>연마주</t>
+  </si>
+  <si>
+    <t>연복주</t>
+  </si>
+  <si>
+    <t>용봉주</t>
+  </si>
+  <si>
+    <t>우애주</t>
+  </si>
+  <si>
+    <t>위하주</t>
+  </si>
+  <si>
+    <t>유수주</t>
+  </si>
+  <si>
+    <t>이호주</t>
+  </si>
+  <si>
+    <t>잠복주</t>
+  </si>
+  <si>
+    <t>장인주</t>
+  </si>
+  <si>
+    <t>저력주</t>
+  </si>
+  <si>
+    <t>전개주</t>
+  </si>
+  <si>
+    <t>절식주</t>
+  </si>
+  <si>
+    <t>정비주</t>
+  </si>
+  <si>
+    <t>조기주</t>
+  </si>
+  <si>
+    <t>조복주</t>
+  </si>
+  <si>
+    <t>중격주</t>
+  </si>
+  <si>
+    <t>증탄주</t>
+  </si>
+  <si>
+    <t>지속주</t>
+  </si>
+  <si>
+    <t>지시주</t>
+  </si>
+  <si>
+    <t>지학주</t>
+  </si>
+  <si>
+    <t>체력주</t>
+  </si>
+  <si>
+    <t>체술주</t>
+  </si>
+  <si>
+    <t>초심주</t>
+  </si>
+  <si>
+    <t>치유주</t>
+  </si>
+  <si>
+    <t>탈기주</t>
+  </si>
+  <si>
+    <t>통격주</t>
+  </si>
+  <si>
+    <t>투석주</t>
+  </si>
+  <si>
+    <t>특사주</t>
+  </si>
+  <si>
+    <t>파룡주</t>
+  </si>
+  <si>
+    <t>포수주</t>
+  </si>
+  <si>
+    <t>포술주</t>
+  </si>
+  <si>
+    <t>폭사주</t>
+  </si>
+  <si>
+    <t>폭파병주</t>
+  </si>
+  <si>
+    <t>표본주</t>
+  </si>
+  <si>
+    <t>해방주</t>
+  </si>
+  <si>
+    <t>혼신주</t>
+  </si>
+  <si>
+    <t>화염주</t>
+  </si>
+  <si>
+    <t>활주주</t>
+  </si>
+  <si>
+    <t>회피주</t>
+  </si>
+  <si>
+    <t>후각주</t>
+  </si>
+  <si>
+    <t>흡입주</t>
+  </si>
+  <si>
+    <t>철벽주</t>
+  </si>
+  <si>
+    <t>폭파주</t>
   </si>
 </sst>
 </file>
@@ -5089,116 +5387,116 @@
   <numFmts count="0"/>
   <fonts count="20">
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="8.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF000000"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="10"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="11"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="18.0"/>
       <name val="나눔고딕"/>
       <color theme="3"/>
-      <sz val="18"/>
     </font>
     <font>
+      <b/>
+      <sz val="15.0"/>
       <name val="나눔고딕"/>
-      <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
     </font>
     <font>
+      <b/>
+      <sz val="13.0"/>
       <name val="나눔고딕"/>
-      <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="0"/>
-      <sz val="11"/>
     </font>
     <font>
+      <i/>
+      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
@@ -5255,19 +5553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998"/>
+        <fgColor theme="4" tint="0.799980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
+        <fgColor theme="4" tint="0.599990"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39998"/>
+        <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5279,19 +5577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998"/>
+        <fgColor theme="5" tint="0.799980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999"/>
+        <fgColor theme="5" tint="0.599990"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39998"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5303,19 +5601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998"/>
+        <fgColor theme="6" tint="0.799980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999"/>
+        <fgColor theme="6" tint="0.599990"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39998"/>
+        <fgColor theme="6" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5327,19 +5625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998"/>
+        <fgColor theme="7" tint="0.799980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999"/>
+        <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39998"/>
+        <fgColor theme="7" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5351,19 +5649,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998"/>
+        <fgColor theme="8" tint="0.799980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999"/>
+        <fgColor theme="8" tint="0.599990"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39998"/>
+        <fgColor theme="8" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5375,19 +5673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998"/>
+        <fgColor theme="9" tint="0.799980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999"/>
+        <fgColor theme="9" tint="0.599990"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39998"/>
+        <fgColor theme="9" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5398,7 +5696,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5415,7 +5713,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5426,7 +5724,7 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5437,7 +5735,7 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5446,9 +5744,9 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39998"/>
+        <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5465,7 +5763,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5482,7 +5780,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5499,7 +5797,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5510,7 +5808,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
@@ -5523,119 +5821,119 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal>
+      <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0"/>
-    <xf borderId="6" fillId="4" fontId="10" numFmtId="0"/>
-    <xf borderId="5" fillId="4" fontId="11" numFmtId="0"/>
-    <xf borderId="7" fillId="5" fontId="12" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
-    <cellStyle builtinId="3" name="쉼표" xfId="1"/>
-    <cellStyle builtinId="4" name="통화" xfId="2"/>
-    <cellStyle builtinId="5" name="백분율" xfId="3"/>
-    <cellStyle builtinId="6" name="쉼표[0]" xfId="4"/>
-    <cellStyle builtinId="7" name="통화[0]" xfId="5"/>
-    <cellStyle builtinId="8" name="하이퍼링크" xfId="6"/>
-    <cellStyle builtinId="9" name="열어본 하이퍼링크" xfId="7"/>
-    <cellStyle builtinId="10" name="메모" xfId="8"/>
-    <cellStyle builtinId="11" name="경고문" xfId="9"/>
-    <cellStyle builtinId="15" name="제목" xfId="10"/>
-    <cellStyle builtinId="16" name="제목1" xfId="11"/>
-    <cellStyle builtinId="17" name="제목2" xfId="12"/>
-    <cellStyle builtinId="18" name="제목3" xfId="13"/>
-    <cellStyle builtinId="19" name="제목4" xfId="14"/>
-    <cellStyle builtinId="20" name="입력" xfId="15"/>
-    <cellStyle builtinId="21" name="출력" xfId="16"/>
-    <cellStyle builtinId="22" name="계산" xfId="17"/>
-    <cellStyle builtinId="23" name="셀 확인" xfId="18"/>
-    <cellStyle builtinId="24" name="연결된 셀" xfId="19"/>
-    <cellStyle builtinId="25" name="요약" xfId="20"/>
-    <cellStyle builtinId="26" name="좋음" xfId="21"/>
-    <cellStyle builtinId="27" name="나쁨" xfId="22"/>
-    <cellStyle builtinId="28" name="보통" xfId="23"/>
-    <cellStyle builtinId="29" name="강조색1" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - 강조색1" xfId="25"/>
-    <cellStyle builtinId="31" name="40% - 강조색1" xfId="26"/>
-    <cellStyle builtinId="32" name="60% - 강조색1" xfId="27"/>
-    <cellStyle builtinId="33" name="강조색2" xfId="28"/>
-    <cellStyle builtinId="34" name="20% - 강조색2" xfId="29"/>
-    <cellStyle builtinId="35" name="40% - 강조색2" xfId="30"/>
-    <cellStyle builtinId="36" name="60% - 강조색2" xfId="31"/>
-    <cellStyle builtinId="37" name="강조색3" xfId="32"/>
-    <cellStyle builtinId="38" name="20% - 강조색3" xfId="33"/>
-    <cellStyle builtinId="39" name="40% - 강조색3" xfId="34"/>
-    <cellStyle builtinId="40" name="60% - 강조색3" xfId="35"/>
-    <cellStyle builtinId="41" name="강조색4" xfId="36"/>
-    <cellStyle builtinId="42" name="20% - 강조색4" xfId="37"/>
-    <cellStyle builtinId="43" name="40% - 강조색4" xfId="38"/>
-    <cellStyle builtinId="44" name="60% - 강조색4" xfId="39"/>
-    <cellStyle builtinId="45" name="강조색5" xfId="40"/>
-    <cellStyle builtinId="46" name="20% - 강조색5" xfId="41"/>
-    <cellStyle builtinId="47" name="40% - 강조색5" xfId="42"/>
-    <cellStyle builtinId="48" name="60% - 강조색5" xfId="43"/>
-    <cellStyle builtinId="49" name="강조색6" xfId="44"/>
-    <cellStyle builtinId="50" name="20% - 강조색6" xfId="45"/>
-    <cellStyle builtinId="51" name="40% - 강조색6" xfId="46"/>
-    <cellStyle builtinId="52" name="60% - 강조색6" xfId="47"/>
-    <cellStyle builtinId="53" name="설명텍스트" xfId="48"/>
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -5901,18 +6199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.250000" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="0" t="s">
@@ -10119,7 +10413,9 @@
       <c r="F162" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G162" s="0" t="n"/>
+      <c r="G162" s="0">
+        <v>0</v>
+      </c>
       <c r="H162" s="0" t="s">
         <v>7</v>
       </c>
@@ -10143,7 +10439,9 @@
       <c r="F163" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G163" s="0" t="n"/>
+      <c r="G163" s="0">
+        <v>0</v>
+      </c>
       <c r="H163" s="0" t="s">
         <v>7</v>
       </c>
@@ -11675,7 +11973,9 @@
       <c r="F222" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G222" s="0" t="n"/>
+      <c r="G222" s="0">
+        <v>0</v>
+      </c>
       <c r="H222" s="0" t="s">
         <v>135</v>
       </c>
@@ -11725,7 +12025,9 @@
       <c r="F224" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G224" s="0" t="n"/>
+      <c r="G224" s="0">
+        <v>0</v>
+      </c>
       <c r="H224" s="0" t="s">
         <v>135</v>
       </c>
@@ -13959,7 +14261,9 @@
       <c r="F310" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G310" s="0" t="n"/>
+      <c r="G310" s="0">
+        <v>0</v>
+      </c>
       <c r="H310" s="0" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +14287,9 @@
       <c r="F311" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G311" s="0" t="n"/>
+      <c r="G311" s="0">
+        <v>0</v>
+      </c>
       <c r="H311" s="0" t="s">
         <v>7</v>
       </c>
@@ -15489,7 +15795,9 @@
       <c r="F369" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G369" s="0" t="n"/>
+      <c r="G369" s="0">
+        <v>0</v>
+      </c>
       <c r="H369" s="0" t="s">
         <v>135</v>
       </c>
@@ -15539,7 +15847,9 @@
       <c r="F371" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G371" s="0" t="n"/>
+      <c r="G371" s="0">
+        <v>0</v>
+      </c>
       <c r="H371" s="0" t="s">
         <v>135</v>
       </c>
@@ -17825,7 +18135,9 @@
       <c r="F459" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G459" s="0" t="n"/>
+      <c r="G459" s="0">
+        <v>0</v>
+      </c>
       <c r="H459" s="0" t="s">
         <v>7</v>
       </c>
@@ -17849,7 +18161,9 @@
       <c r="F460" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G460" s="0" t="n"/>
+      <c r="G460" s="0">
+        <v>0</v>
+      </c>
       <c r="H460" s="0" t="s">
         <v>7</v>
       </c>
@@ -19329,7 +19643,9 @@
       <c r="F517" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="0" t="n"/>
+      <c r="G517" s="0">
+        <v>0</v>
+      </c>
       <c r="H517" s="0" t="s">
         <v>135</v>
       </c>
@@ -19379,7 +19695,9 @@
       <c r="F519" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G519" s="0" t="n"/>
+      <c r="G519" s="0">
+        <v>0</v>
+      </c>
       <c r="H519" s="0" t="s">
         <v>135</v>
       </c>
@@ -21613,7 +21931,9 @@
       <c r="F605" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G605" s="0" t="n"/>
+      <c r="G605" s="0">
+        <v>0</v>
+      </c>
       <c r="H605" s="0" t="s">
         <v>7</v>
       </c>
@@ -21637,7 +21957,9 @@
       <c r="F606" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G606" s="0" t="n"/>
+      <c r="G606" s="0">
+        <v>0</v>
+      </c>
       <c r="H606" s="0" t="s">
         <v>7</v>
       </c>
@@ -23143,7 +23465,9 @@
       <c r="F664" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G664" s="0" t="n"/>
+      <c r="G664" s="0">
+        <v>0</v>
+      </c>
       <c r="H664" s="0" t="s">
         <v>135</v>
       </c>
@@ -23193,7 +23517,9 @@
       <c r="F666" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G666" s="0" t="n"/>
+      <c r="G666" s="0">
+        <v>0</v>
+      </c>
       <c r="H666" s="0" t="s">
         <v>135</v>
       </c>
@@ -25461,1190 +25787,2561 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B143"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>1590</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>1612</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>1622</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>1630</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>1632</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>1646</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>1648</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>1660</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="0" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="0" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="0" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="0" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="0" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="0" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="0" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="0" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="0" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="0" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="0" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="0" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="0" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="0" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="0" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="0" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="0" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="0" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="0" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="0" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="0" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="0" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="0" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="0" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="0" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="0" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="0" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="0" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="0" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="0" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="0" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="0" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="0" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="0" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="0" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="0" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="0" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="0" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="0" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="0" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="0" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="0" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <cols>
+    <col min="4" max="4" width="17.33833334" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="0" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="0" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="0" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="0" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="0" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="0" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="0" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="0" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="0" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="0" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="0" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="0" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="0" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="0" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="0" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="0" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="0" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="0" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="0" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="0" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="0" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="0" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="0" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="0" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="0" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="0" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="0" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="0" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="0" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="0" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="0" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="0" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="0" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="0" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="0" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="0" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="0" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="0" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="0" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="0" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="0" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="0" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="0" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="0" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="0" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="0">
+        <v>7</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/app/armor_list.xlsx
+++ b/app/armor_list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11595" windowWidth="25755" xWindow="360" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="Armor" sheetId="1" r:id="rId1"/>
-    <sheet name="Skill" sheetId="2" r:id="rId2"/>
-    <sheet name="Accessory" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Armor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Skill" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accessory" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Item" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2178">
   <si>
     <t>레더헤드</t>
   </si>
@@ -5086,9 +5086,6 @@
     <t>KO주</t>
   </si>
   <si>
-    <t>전체5678</t>
-  </si>
-  <si>
     <t>가호주</t>
   </si>
   <si>
@@ -5378,6 +5375,1182 @@
   </si>
   <si>
     <t>폭파주</t>
+  </si>
+  <si>
+    <t>1기단 티켓</t>
+  </si>
+  <si>
+    <t>SF V 티켓</t>
+  </si>
+  <si>
+    <t>SF V 티켓 II</t>
+  </si>
+  <si>
+    <t>SF V 티켓 II＇</t>
+  </si>
+  <si>
+    <t>가마루코인</t>
+  </si>
+  <si>
+    <t>가스토돈의 견갑각</t>
+  </si>
+  <si>
+    <t>가스토돈의 첨예뿔</t>
+  </si>
+  <si>
+    <t>각룡의 갑각</t>
+  </si>
+  <si>
+    <t>각룡의 견갑</t>
+  </si>
+  <si>
+    <t>각룡의 견갑각</t>
+  </si>
+  <si>
+    <t>각룡의 골수</t>
+  </si>
+  <si>
+    <t>각룡의 미갑</t>
+  </si>
+  <si>
+    <t>각룡의 배갑</t>
+  </si>
+  <si>
+    <t>각룡의 어금니</t>
+  </si>
+  <si>
+    <t>각룡의 연수</t>
+  </si>
+  <si>
+    <t>강고한 암골</t>
+  </si>
+  <si>
+    <t>강력마비주머니</t>
+  </si>
+  <si>
+    <t>강룡의 견갑각</t>
+  </si>
+  <si>
+    <t>강룡의 꼬리</t>
+  </si>
+  <si>
+    <t>강룡의 날개</t>
+  </si>
+  <si>
+    <t>강룡의 보옥</t>
+  </si>
+  <si>
+    <t>강룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>강룡의 첨예뿔</t>
+  </si>
+  <si>
+    <t>강룡 티켓</t>
+  </si>
+  <si>
+    <t>강철의 용비늘+</t>
+  </si>
+  <si>
+    <t>개화 티켓</t>
+  </si>
+  <si>
+    <t>검은 수정 티켓</t>
+  </si>
+  <si>
+    <t>격룡왕코인</t>
+  </si>
+  <si>
+    <t>격투왕코인</t>
+  </si>
+  <si>
+    <t>견룡골</t>
+  </si>
+  <si>
+    <t>결합된 무기</t>
+  </si>
+  <si>
+    <t>고대의 용골</t>
+  </si>
+  <si>
+    <t>고룡골</t>
+  </si>
+  <si>
+    <t>고룡의 피</t>
+  </si>
+  <si>
+    <t>고무질의 갑각</t>
+  </si>
+  <si>
+    <t>고무질의 견갑각</t>
+  </si>
+  <si>
+    <t>곤충도감[여름]</t>
+  </si>
+  <si>
+    <t>골추룡의 갑각</t>
+  </si>
+  <si>
+    <t>골추룡의 견갑각</t>
+  </si>
+  <si>
+    <t>골추룡의 골수</t>
+  </si>
+  <si>
+    <t>골추룡의 비늘</t>
+  </si>
+  <si>
+    <t>골추룡의 비늘+</t>
+  </si>
+  <si>
+    <t>골추룡의 연수</t>
+  </si>
+  <si>
+    <t>골추룡의 흑유각</t>
+  </si>
+  <si>
+    <t>공폭룡의 꼬리</t>
+  </si>
+  <si>
+    <t>공폭룡의 두갑각</t>
+  </si>
+  <si>
+    <t>공폭룡의 발톱</t>
+  </si>
+  <si>
+    <t>공폭룡의 보옥</t>
+  </si>
+  <si>
+    <t>공폭룡의 큰이빨</t>
+  </si>
+  <si>
+    <t>공폭룡의 타액</t>
+  </si>
+  <si>
+    <t>공폭룡의 흑린</t>
+  </si>
+  <si>
+    <t>공폭룡의 흑피</t>
+  </si>
+  <si>
+    <t>교어의 껍질</t>
+  </si>
+  <si>
+    <t>교어의 껍질+</t>
+  </si>
+  <si>
+    <t>교어의 수염</t>
+  </si>
+  <si>
+    <t>교어의 큰수염</t>
+  </si>
+  <si>
+    <t>기르오스의 가죽</t>
+  </si>
+  <si>
+    <t>기르오스의 가죽+</t>
+  </si>
+  <si>
+    <t>기르오스의 마비어금니</t>
+  </si>
+  <si>
+    <t>기르오스의 비늘</t>
+  </si>
+  <si>
+    <t>기르오스의 비늘+</t>
+  </si>
+  <si>
+    <t>난폭한 만골</t>
+  </si>
+  <si>
+    <t>난휘룡의 금각</t>
+  </si>
+  <si>
+    <t>난휘룡의 금권각</t>
+  </si>
+  <si>
+    <t>난휘룡의 금린</t>
+  </si>
+  <si>
+    <t>난휘룡의 금미각</t>
+  </si>
+  <si>
+    <t>난휘룡의 금황옥</t>
+  </si>
+  <si>
+    <t>날고기</t>
+  </si>
+  <si>
+    <t>납량 티켓</t>
+  </si>
+  <si>
+    <t>노라족 의용병의 증표</t>
+  </si>
+  <si>
+    <t>노바크리스털</t>
+  </si>
+  <si>
+    <t>단단한 뼈</t>
+  </si>
+  <si>
+    <t>대지의 결정</t>
+  </si>
+  <si>
+    <t>독요조의 갑각</t>
+  </si>
+  <si>
+    <t>독요조의 견갑각</t>
+  </si>
+  <si>
+    <t>독요조의 꼬리</t>
+  </si>
+  <si>
+    <t>독요조의 날개</t>
+  </si>
+  <si>
+    <t>독요조의 비늘</t>
+  </si>
+  <si>
+    <t>독요조의 비늘+</t>
+  </si>
+  <si>
+    <t>독요조의 우근</t>
+  </si>
+  <si>
+    <t>독요조의 후대</t>
+  </si>
+  <si>
+    <t>독요조의 후대+</t>
+  </si>
+  <si>
+    <t>독주머니</t>
+  </si>
+  <si>
+    <t>동결주머니</t>
+  </si>
+  <si>
+    <t>동료 티켓</t>
+  </si>
+  <si>
+    <t>드래그라이트광석</t>
+  </si>
+  <si>
+    <t>따뜻한 모피</t>
+  </si>
+  <si>
+    <t>라이트크리스털</t>
+  </si>
+  <si>
+    <t>랑고스타의 갑각</t>
+  </si>
+  <si>
+    <t>랑고스타의 견갑각</t>
+  </si>
+  <si>
+    <t>랑고스타의 날개</t>
+  </si>
+  <si>
+    <t>랑고스타의 얇은날개</t>
+  </si>
+  <si>
+    <t>레드 오브</t>
+  </si>
+  <si>
+    <t>레우스코인</t>
+  </si>
+  <si>
+    <t>레이아코인</t>
+  </si>
+  <si>
+    <t>마비주머니</t>
+  </si>
+  <si>
+    <t>마수의 갈기</t>
+  </si>
+  <si>
+    <t>마수의 꼬리</t>
+  </si>
+  <si>
+    <t>마수의 단단한 뼈</t>
+  </si>
+  <si>
+    <t>마수의 열조</t>
+  </si>
+  <si>
+    <t>마수의 큰뿔</t>
+  </si>
+  <si>
+    <t>마카라이트광석</t>
+  </si>
+  <si>
+    <t>만악룡의 가죽+</t>
+  </si>
+  <si>
+    <t>만악룡의 꼬리</t>
+  </si>
+  <si>
+    <t>만악룡의 모피</t>
+  </si>
+  <si>
+    <t>만악룡의 보옥</t>
+  </si>
+  <si>
+    <t>만악룡의 비늘</t>
+  </si>
+  <si>
+    <t>만악룡의 비늘+</t>
+  </si>
+  <si>
+    <t>만악룡의 어금니</t>
+  </si>
+  <si>
+    <t>만악룡의 어금니+</t>
+  </si>
+  <si>
+    <t>만악룡의 역린</t>
+  </si>
+  <si>
+    <t>만악룡의 코뼈</t>
+  </si>
+  <si>
+    <t>만악룡의 코뼈+</t>
+  </si>
+  <si>
+    <t>맹독주머니</t>
+  </si>
+  <si>
+    <t>멸진룡의 견갑각</t>
+  </si>
+  <si>
+    <t>멸진룡의 꼬리</t>
+  </si>
+  <si>
+    <t>멸진룡의 보옥</t>
+  </si>
+  <si>
+    <t>멸진룡의 재생각</t>
+  </si>
+  <si>
+    <t>멸진룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>멸진룡의 큰뿔</t>
+  </si>
+  <si>
+    <t>명등룡의 꼬리</t>
+  </si>
+  <si>
+    <t>명등룡의 백각</t>
+  </si>
+  <si>
+    <t>명등룡의 유각</t>
+  </si>
+  <si>
+    <t>명등룡의 유린</t>
+  </si>
+  <si>
+    <t>명등룡의 유막</t>
+  </si>
+  <si>
+    <t>명등룡의 유옥</t>
+  </si>
+  <si>
+    <t>명등룡의 유익</t>
+  </si>
+  <si>
+    <t>명등룡의 유조</t>
+  </si>
+  <si>
+    <t>명장의 설계도</t>
+  </si>
+  <si>
+    <t>모스의 태피</t>
+  </si>
+  <si>
+    <t>몬스터의 농즙</t>
+  </si>
+  <si>
+    <t>몬스터의 체액</t>
+  </si>
+  <si>
+    <t>물주머니</t>
+  </si>
+  <si>
+    <t>바르노스의 가죽+</t>
+  </si>
+  <si>
+    <t>바르노스의 첨예발톱</t>
+  </si>
+  <si>
+    <t>보로스코인</t>
+  </si>
+  <si>
+    <t>부공룡의 날개</t>
+  </si>
+  <si>
+    <t>부공룡의 모피</t>
+  </si>
+  <si>
+    <t>부공룡의 모피+</t>
+  </si>
+  <si>
+    <t>부공룡의 비늘</t>
+  </si>
+  <si>
+    <t>부공룡의 비늘+</t>
+  </si>
+  <si>
+    <t>부공룡의 익막</t>
+  </si>
+  <si>
+    <t>불길한 천</t>
+  </si>
+  <si>
+    <t>불멸의 용비늘</t>
+  </si>
+  <si>
+    <t>비뢰룡의 모피</t>
+  </si>
+  <si>
+    <t>비뢰룡의 모피+</t>
+  </si>
+  <si>
+    <t>비뢰룡의 비늘</t>
+  </si>
+  <si>
+    <t>비뢰룡의 비늘+</t>
+  </si>
+  <si>
+    <t>비뢰룡의 손톱</t>
+  </si>
+  <si>
+    <t>비뢰룡의 전극침</t>
+  </si>
+  <si>
+    <t>비뢰룡의 전극침+</t>
+  </si>
+  <si>
+    <t>비뢰룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>비뢰룡의 피막</t>
+  </si>
+  <si>
+    <t>비룡코인</t>
+  </si>
+  <si>
+    <t>비옥한 진흙</t>
+  </si>
+  <si>
+    <t>비적룡의가죽</t>
+  </si>
+  <si>
+    <t>비적룡의가죽+</t>
+  </si>
+  <si>
+    <t>비적룡의꼬리</t>
+  </si>
+  <si>
+    <t>비적룡의두건각</t>
+  </si>
+  <si>
+    <t>비적룡의두건각+</t>
+  </si>
+  <si>
+    <t>비적룡의비늘</t>
+  </si>
+  <si>
+    <t>비적룡의비늘+</t>
+  </si>
+  <si>
+    <t>비적룡의어금니</t>
+  </si>
+  <si>
+    <t>비적룡의어금니+</t>
+  </si>
+  <si>
+    <t>비틀린뿔</t>
+  </si>
+  <si>
+    <t>빙결주머니</t>
+  </si>
+  <si>
+    <t>뾰족한 발톱</t>
+  </si>
+  <si>
+    <t>사체의 용비늘</t>
+  </si>
+  <si>
+    <t>산호의 홍골</t>
+  </si>
+  <si>
+    <t>샤무오스의 가죽</t>
+  </si>
+  <si>
+    <t>샤무오스의 가죽+</t>
+  </si>
+  <si>
+    <t>샤무오스의 비늘</t>
+  </si>
+  <si>
+    <t>샤무오스의 비늘+</t>
+  </si>
+  <si>
+    <t>소조의 가죽</t>
+  </si>
+  <si>
+    <t>소조의 가죽+</t>
+  </si>
+  <si>
+    <t>소조의 부리</t>
+  </si>
+  <si>
+    <t>소조의 부리+</t>
+  </si>
+  <si>
+    <t>소조의 비늘</t>
+  </si>
+  <si>
+    <t>소조의 비늘+</t>
+  </si>
+  <si>
+    <t>소조의 장식깃털</t>
+  </si>
+  <si>
+    <t>소조의 장식깃털+</t>
+  </si>
+  <si>
+    <t>수렵왕코인</t>
+  </si>
+  <si>
+    <t>수룡코인</t>
+  </si>
+  <si>
+    <t>수면주머니</t>
+  </si>
+  <si>
+    <t>수수께끼의 머리뼈</t>
+  </si>
+  <si>
+    <t>수정원석</t>
+  </si>
+  <si>
+    <t>승화된 무기</t>
+  </si>
+  <si>
+    <t>시투룡의 견갑각</t>
+  </si>
+  <si>
+    <t>시투룡의 꼬리</t>
+  </si>
+  <si>
+    <t>시투룡의 날개</t>
+  </si>
+  <si>
+    <t>시투룡의 보옥</t>
+  </si>
+  <si>
+    <t>시투룡의 어금니+</t>
+  </si>
+  <si>
+    <t>시투룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>시투룡의 피막</t>
+  </si>
+  <si>
+    <t>시투룡 티켓</t>
+  </si>
+  <si>
+    <t>심해의 결정</t>
+  </si>
+  <si>
+    <t>암적룡의가죽+</t>
+  </si>
+  <si>
+    <t>암적룡의꼬리</t>
+  </si>
+  <si>
+    <t>암적룡의비늘+</t>
+  </si>
+  <si>
+    <t>암적룡의첨예발톱</t>
+  </si>
+  <si>
+    <t>암적룡의턱</t>
+  </si>
+  <si>
+    <t>앵화룡의 견갑각</t>
+  </si>
+  <si>
+    <t>앵화룡의 비늘+</t>
+  </si>
+  <si>
+    <t>양질의검은회오리뿔</t>
+  </si>
+  <si>
+    <t>양질의 견골</t>
+  </si>
+  <si>
+    <t>양질의 모피</t>
+  </si>
+  <si>
+    <t>양질의 비틀린뿔</t>
+  </si>
+  <si>
+    <t>에테라이트 조각</t>
+  </si>
+  <si>
+    <t>염룡의가루</t>
+  </si>
+  <si>
+    <t>염룡의날개</t>
+  </si>
+  <si>
+    <t>염룡의보옥</t>
+  </si>
+  <si>
+    <t>염룡의첨예발톱</t>
+  </si>
+  <si>
+    <t>염비룡의 갈기</t>
+  </si>
+  <si>
+    <t>염비룡의 견갑각</t>
+  </si>
+  <si>
+    <t>염비룡의 꼬리</t>
+  </si>
+  <si>
+    <t>염비룡의 날개</t>
+  </si>
+  <si>
+    <t>염비룡의 보옥</t>
+  </si>
+  <si>
+    <t>염비룡의 비늘+</t>
+  </si>
+  <si>
+    <t>염비룡의 첨예뿔</t>
+  </si>
+  <si>
+    <t>염왕룡의갈기</t>
+  </si>
+  <si>
+    <t>염왕룡의견갑각</t>
+  </si>
+  <si>
+    <t>염왕룡의 꼬리</t>
+  </si>
+  <si>
+    <t>염왕룡의첨예뿔</t>
+  </si>
+  <si>
+    <t>염왕룡 티켓</t>
+  </si>
+  <si>
+    <t>예리한 발톱</t>
+  </si>
+  <si>
+    <t>옥염석</t>
+  </si>
+  <si>
+    <t>옥염의용비늘</t>
+  </si>
+  <si>
+    <t>욕염의용비늘</t>
+  </si>
+  <si>
+    <t>용골+</t>
+  </si>
+  <si>
+    <t>용골 [대]</t>
+  </si>
+  <si>
+    <t>용골[소]</t>
+  </si>
+  <si>
+    <t>용골 [중]</t>
+  </si>
+  <si>
+    <t>용골 덩어리</t>
+  </si>
+  <si>
+    <t>용기의 증표</t>
+  </si>
+  <si>
+    <t>용기의 증표G</t>
+  </si>
+  <si>
+    <t>용맥의 결정</t>
+  </si>
+  <si>
+    <t>용산룡의 마그마</t>
+  </si>
+  <si>
+    <t>용산룡의 배갑</t>
+  </si>
+  <si>
+    <t>용산룡의 보옥</t>
+  </si>
+  <si>
+    <t>용산룡의 암각</t>
+  </si>
+  <si>
+    <t>용산룡의 열비늘</t>
+  </si>
+  <si>
+    <t>용산룡의 흉각</t>
+  </si>
+  <si>
+    <t>용암덩어리</t>
+  </si>
+  <si>
+    <t>용암룡의견갑각</t>
+  </si>
+  <si>
+    <t>용암룡의비늘+</t>
+  </si>
+  <si>
+    <t>용암룡의어금니+</t>
+  </si>
+  <si>
+    <t>용암룡의지느러미+</t>
+  </si>
+  <si>
+    <t>용옥</t>
+  </si>
+  <si>
+    <t>용정원석</t>
+  </si>
+  <si>
+    <t>용해된 무기</t>
+  </si>
+  <si>
+    <t>울음주머니</t>
+  </si>
+  <si>
+    <t>유니언광석</t>
+  </si>
+  <si>
+    <t>이어룡의 갑각</t>
+  </si>
+  <si>
+    <t>이어룡의 견갑각</t>
+  </si>
+  <si>
+    <t>이어룡의 비늘</t>
+  </si>
+  <si>
+    <t>이어룡의 비늘+</t>
+  </si>
+  <si>
+    <t>이어룡의 어금니</t>
+  </si>
+  <si>
+    <t>이어룡의 어금니+</t>
+  </si>
+  <si>
+    <t>이어룡의 지느러미</t>
+  </si>
+  <si>
+    <t>이어룡의 지느러미+</t>
+  </si>
+  <si>
+    <t>익룡의 가죽</t>
+  </si>
+  <si>
+    <t>익룡의 가죽+</t>
+  </si>
+  <si>
+    <t>자양진액</t>
+  </si>
+  <si>
+    <t>자화룡의 가시</t>
+  </si>
+  <si>
+    <t>자화룡의 가시+</t>
+  </si>
+  <si>
+    <t>자화룡의 갑각</t>
+  </si>
+  <si>
+    <t>자화룡의 견갑각</t>
+  </si>
+  <si>
+    <t>자화룡의 비늘</t>
+  </si>
+  <si>
+    <t>자화룡의 비늘+</t>
+  </si>
+  <si>
+    <t>자화룡의 역린</t>
+  </si>
+  <si>
+    <t>자화룡의 익막</t>
+  </si>
+  <si>
+    <t>자화룡의 홍옥</t>
+  </si>
+  <si>
+    <t>장수호랑나비</t>
+  </si>
+  <si>
+    <t>쟈그라스의 가죽</t>
+  </si>
+  <si>
+    <t>쟈그라스의 가죽+</t>
+  </si>
+  <si>
+    <t>쟈그라스의 비늘</t>
+  </si>
+  <si>
+    <t>쟈그라스의 비늘+</t>
+  </si>
+  <si>
+    <t>적룡의 가죽</t>
+  </si>
+  <si>
+    <t>적룡의 가죽+</t>
+  </si>
+  <si>
+    <t>적룡의 갈기</t>
+  </si>
+  <si>
+    <t>적룡의 발톱</t>
+  </si>
+  <si>
+    <t>적룡의 비늘</t>
+  </si>
+  <si>
+    <t>적룡의 비늘+</t>
+  </si>
+  <si>
+    <t>적룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>전격주머니</t>
+  </si>
+  <si>
+    <t>전기주머니</t>
+  </si>
+  <si>
+    <t>정정원석</t>
+  </si>
+  <si>
+    <t>조룡옥</t>
+  </si>
+  <si>
+    <t>조사단 티켓</t>
+  </si>
+  <si>
+    <t>질주진액</t>
+  </si>
+  <si>
+    <t>찌그러진 광골</t>
+  </si>
+  <si>
+    <t>참조룡의 경근</t>
+  </si>
+  <si>
+    <t>참조룡의 경근+</t>
+  </si>
+  <si>
+    <t>참조룡의 꼬리</t>
+  </si>
+  <si>
+    <t>참조룡의 발톱</t>
+  </si>
+  <si>
+    <t>참조룡의 보옥</t>
+  </si>
+  <si>
+    <t>참조룡의 비늘</t>
+  </si>
+  <si>
+    <t>참조룡의 비늘+</t>
+  </si>
+  <si>
+    <t>참조룡의 어금니</t>
+  </si>
+  <si>
+    <t>참조룡의 어금니+</t>
+  </si>
+  <si>
+    <t>참조룡의 역린</t>
+  </si>
+  <si>
+    <t>참조룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>창화룡의 견갑각</t>
+  </si>
+  <si>
+    <t>창화룡의 꼬리</t>
+  </si>
+  <si>
+    <t>창화룡의 날개</t>
+  </si>
+  <si>
+    <t>창화룡의 비늘+</t>
+  </si>
+  <si>
+    <t>철광석</t>
+  </si>
+  <si>
+    <t>첨룡골</t>
+  </si>
+  <si>
+    <t>치치코인</t>
+  </si>
+  <si>
+    <t>카브레라이트광석</t>
+  </si>
+  <si>
+    <t>칸타로스의 갑각</t>
+  </si>
+  <si>
+    <t>칸타로스의 견갑각</t>
+  </si>
+  <si>
+    <t>칸타로스의 날개</t>
+  </si>
+  <si>
+    <t>칸타로스의 머리</t>
+  </si>
+  <si>
+    <t>칸타로스의 얇은날개</t>
+  </si>
+  <si>
+    <t>케스토돈의 갑각</t>
+  </si>
+  <si>
+    <t>케스토돈의 견갑각</t>
+  </si>
+  <si>
+    <t>케스토돈의 두갑각</t>
+  </si>
+  <si>
+    <t>쿠루루코인</t>
+  </si>
+  <si>
+    <t>큰물주머니</t>
+  </si>
+  <si>
+    <t>태고의 대골</t>
+  </si>
+  <si>
+    <t>토사룡의 갑각</t>
+  </si>
+  <si>
+    <t>토사룡의 견갑</t>
+  </si>
+  <si>
+    <t>토사룡의 견갑각</t>
+  </si>
+  <si>
+    <t>토사룡의 꼬리</t>
+  </si>
+  <si>
+    <t>토사룡의 두갑각</t>
+  </si>
+  <si>
+    <t>토사룡의 발톱</t>
+  </si>
+  <si>
+    <t>토사룡의 발톱+</t>
+  </si>
+  <si>
+    <t>토사룡의 배갑</t>
+  </si>
+  <si>
+    <t>파란별의 보옥</t>
+  </si>
+  <si>
+    <t>파란별의 조각</t>
+  </si>
+  <si>
+    <t>폭린룡의견갑각</t>
+  </si>
+  <si>
+    <t>폭린룡의꼬리</t>
+  </si>
+  <si>
+    <t>폭린룡의날개</t>
+  </si>
+  <si>
+    <t>폭린룡의보옥</t>
+  </si>
+  <si>
+    <t>폭린룡의비늘+</t>
+  </si>
+  <si>
+    <t>폭린룡의첨예발톱</t>
+  </si>
+  <si>
+    <t>폭린룡의폭선</t>
+  </si>
+  <si>
+    <t>폭염주머니</t>
+  </si>
+  <si>
+    <t>폭추룡의견갑각</t>
+  </si>
+  <si>
+    <t>폭추룡의내열갑각</t>
+  </si>
+  <si>
+    <t>폭추룡의비늘+</t>
+  </si>
+  <si>
+    <t>폭추룡의연수</t>
+  </si>
+  <si>
+    <t>폭추룡의턱</t>
+  </si>
+  <si>
+    <t>폭추룡의홍옥</t>
+  </si>
+  <si>
+    <t>푸케푸케코인</t>
+  </si>
+  <si>
+    <t>풍표룡의 가죽</t>
+  </si>
+  <si>
+    <t>풍표룡의 가죽+</t>
+  </si>
+  <si>
+    <t>풍표룡의 꼬리</t>
+  </si>
+  <si>
+    <t>풍표룡의 날개</t>
+  </si>
+  <si>
+    <t>풍표룡의 발톱</t>
+  </si>
+  <si>
+    <t>풍표룡의 보옥</t>
+  </si>
+  <si>
+    <t>풍표룡의 비늘</t>
+  </si>
+  <si>
+    <t>풍표룡의 비늘+</t>
+  </si>
+  <si>
+    <t>풍표룡의 역린</t>
+  </si>
+  <si>
+    <t>풍표룡의 익막</t>
+  </si>
+  <si>
+    <t>풍표룡의 첨예발톱</t>
+  </si>
+  <si>
+    <t>현조의 가죽</t>
+  </si>
+  <si>
+    <t>현조의 가죽+</t>
+  </si>
+  <si>
+    <t>현조의 발광막</t>
+  </si>
+  <si>
+    <t>현조의 발톱</t>
+  </si>
+  <si>
+    <t>현조의 비늘</t>
+  </si>
+  <si>
+    <t>현조의 비늘+</t>
+  </si>
+  <si>
+    <t>현조의 섬광막</t>
+  </si>
+  <si>
+    <t>현조의 첨예발톱</t>
+  </si>
+  <si>
+    <t>혼수주머니</t>
+  </si>
+  <si>
+    <t>화룡의 갑각</t>
+  </si>
+  <si>
+    <t>화룡의 견갑각</t>
+  </si>
+  <si>
+    <t>화룡의 골수</t>
+  </si>
+  <si>
+    <t>화룡의 꼬리</t>
+  </si>
+  <si>
+    <t>화룡의 날개</t>
+  </si>
+  <si>
+    <t>화룡의 날개발톱</t>
+  </si>
+  <si>
+    <t>화룡의 비늘</t>
+  </si>
+  <si>
+    <t>화룡의 비늘+</t>
+  </si>
+  <si>
+    <t>화룡의 역린</t>
+  </si>
+  <si>
+    <t>화룡의 연수</t>
+  </si>
+  <si>
+    <t>화룡의 익막</t>
+  </si>
+  <si>
+    <t>화룡의 홍옥</t>
+  </si>
+  <si>
+    <t>화염주머니</t>
+  </si>
+  <si>
+    <t>화이트리버</t>
+  </si>
+  <si>
+    <t>환수의 가죽</t>
+  </si>
+  <si>
+    <t>환수의 가죽+</t>
+  </si>
+  <si>
+    <t>환수의 갈기</t>
+  </si>
+  <si>
+    <t>환수의 꼬리</t>
+  </si>
+  <si>
+    <t>환수의 뇌각</t>
+  </si>
+  <si>
+    <t>환수의 뇌미</t>
+  </si>
+  <si>
+    <t>환수의 창각</t>
+  </si>
+  <si>
+    <t>환수 티켓</t>
+  </si>
+  <si>
+    <t>환정원석</t>
+  </si>
+  <si>
+    <t>흑각룡의견갑</t>
+  </si>
+  <si>
+    <t>흑각룡의견갑각</t>
+  </si>
+  <si>
+    <t>흔들흔들 티켓</t>
   </si>
 </sst>
 </file>
@@ -5387,116 +6560,116 @@
   <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="8.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF000000"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="10"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color theme="11"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="18.0"/>
       <name val="나눔고딕"/>
       <color theme="3"/>
+      <sz val="18"/>
     </font>
     <font>
-      <b/>
-      <sz val="15.0"/>
       <name val="나눔고딕"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.0"/>
       <name val="나눔고딕"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
+      <name val="나눔고딕"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="나눔고딕"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="나눔고딕"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="나눔고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="나눔고딕"/>
+      <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
@@ -5553,19 +6726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
+        <fgColor theme="4" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
+        <fgColor theme="4" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
+        <fgColor theme="4" tint="0.39998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5577,19 +6750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
+        <fgColor theme="5" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
+        <fgColor theme="5" tint="0.39998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5601,19 +6774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
+        <fgColor theme="6" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
+        <fgColor theme="6" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
+        <fgColor theme="6" tint="0.39998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5625,19 +6798,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
+        <fgColor theme="7" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
+        <fgColor theme="7" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
+        <fgColor theme="7" tint="0.39998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5649,19 +6822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
+        <fgColor theme="8" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
+        <fgColor theme="8" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
+        <fgColor theme="8" tint="0.39998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5673,19 +6846,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
+        <fgColor theme="9" tint="0.79998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
+        <fgColor theme="9" tint="0.59999"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
+        <fgColor theme="9" tint="0.39998"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -5696,9 +6869,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5713,9 +6884,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -5724,9 +6893,7 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -5735,20 +6902,16 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
+        <color theme="4" tint="0.39998"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5763,9 +6926,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -5780,9 +6941,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -5797,9 +6956,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -5808,9 +6965,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -5821,119 +6976,118 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="1" fillId="2" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0"/>
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0"/>
+    <xf borderId="5" fillId="4" fontId="11" numFmtId="0"/>
+    <xf borderId="7" fillId="5" fontId="12" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle builtinId="3" name="쉼표" xfId="1"/>
+    <cellStyle builtinId="4" name="통화" xfId="2"/>
+    <cellStyle builtinId="5" name="백분율" xfId="3"/>
+    <cellStyle builtinId="6" name="쉼표[0]" xfId="4"/>
+    <cellStyle builtinId="7" name="통화[0]" xfId="5"/>
+    <cellStyle builtinId="8" name="하이퍼링크" xfId="6"/>
+    <cellStyle builtinId="9" name="열어본 하이퍼링크" xfId="7"/>
+    <cellStyle builtinId="10" name="메모" xfId="8"/>
+    <cellStyle builtinId="11" name="경고문" xfId="9"/>
+    <cellStyle builtinId="15" name="제목" xfId="10"/>
+    <cellStyle builtinId="16" name="제목1" xfId="11"/>
+    <cellStyle builtinId="17" name="제목2" xfId="12"/>
+    <cellStyle builtinId="18" name="제목3" xfId="13"/>
+    <cellStyle builtinId="19" name="제목4" xfId="14"/>
+    <cellStyle builtinId="20" name="입력" xfId="15"/>
+    <cellStyle builtinId="21" name="출력" xfId="16"/>
+    <cellStyle builtinId="22" name="계산" xfId="17"/>
+    <cellStyle builtinId="23" name="셀 확인" xfId="18"/>
+    <cellStyle builtinId="24" name="연결된 셀" xfId="19"/>
+    <cellStyle builtinId="25" name="요약" xfId="20"/>
+    <cellStyle builtinId="26" name="좋음" xfId="21"/>
+    <cellStyle builtinId="27" name="나쁨" xfId="22"/>
+    <cellStyle builtinId="28" name="보통" xfId="23"/>
+    <cellStyle builtinId="29" name="강조색1" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - 강조색1" xfId="25"/>
+    <cellStyle builtinId="31" name="40% - 강조색1" xfId="26"/>
+    <cellStyle builtinId="32" name="60% - 강조색1" xfId="27"/>
+    <cellStyle builtinId="33" name="강조색2" xfId="28"/>
+    <cellStyle builtinId="34" name="20% - 강조색2" xfId="29"/>
+    <cellStyle builtinId="35" name="40% - 강조색2" xfId="30"/>
+    <cellStyle builtinId="36" name="60% - 강조색2" xfId="31"/>
+    <cellStyle builtinId="37" name="강조색3" xfId="32"/>
+    <cellStyle builtinId="38" name="20% - 강조색3" xfId="33"/>
+    <cellStyle builtinId="39" name="40% - 강조색3" xfId="34"/>
+    <cellStyle builtinId="40" name="60% - 강조색3" xfId="35"/>
+    <cellStyle builtinId="41" name="강조색4" xfId="36"/>
+    <cellStyle builtinId="42" name="20% - 강조색4" xfId="37"/>
+    <cellStyle builtinId="43" name="40% - 강조색4" xfId="38"/>
+    <cellStyle builtinId="44" name="60% - 강조색4" xfId="39"/>
+    <cellStyle builtinId="45" name="강조색5" xfId="40"/>
+    <cellStyle builtinId="46" name="20% - 강조색5" xfId="41"/>
+    <cellStyle builtinId="47" name="40% - 강조색5" xfId="42"/>
+    <cellStyle builtinId="48" name="60% - 강조색5" xfId="43"/>
+    <cellStyle builtinId="49" name="강조색6" xfId="44"/>
+    <cellStyle builtinId="50" name="20% - 강조색6" xfId="45"/>
+    <cellStyle builtinId="51" name="40% - 강조색6" xfId="46"/>
+    <cellStyle builtinId="52" name="60% - 강조색6" xfId="47"/>
+    <cellStyle builtinId="53" name="설명텍스트" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -6199,14 +7353,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.250000" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="0" t="s">
@@ -10413,7 +11571,7 @@
       <c r="F162" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G162" s="0">
+      <c r="G162" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H162" s="0" t="s">
@@ -10439,7 +11597,7 @@
       <c r="F163" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G163" s="0">
+      <c r="G163" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H163" s="0" t="s">
@@ -11973,7 +13131,7 @@
       <c r="F222" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G222" s="0">
+      <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="s">
@@ -12025,7 +13183,7 @@
       <c r="F224" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G224" s="0">
+      <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="s">
@@ -14261,7 +15419,7 @@
       <c r="F310" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G310" s="0">
+      <c r="G310" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H310" s="0" t="s">
@@ -14287,7 +15445,7 @@
       <c r="F311" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G311" s="0">
+      <c r="G311" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H311" s="0" t="s">
@@ -15795,7 +16953,7 @@
       <c r="F369" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G369" s="0">
+      <c r="G369" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H369" s="0" t="s">
@@ -15847,7 +17005,7 @@
       <c r="F371" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G371" s="0">
+      <c r="G371" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H371" s="0" t="s">
@@ -18135,7 +19293,7 @@
       <c r="F459" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G459" s="0">
+      <c r="G459" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H459" s="0" t="s">
@@ -18161,7 +19319,7 @@
       <c r="F460" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G460" s="0">
+      <c r="G460" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H460" s="0" t="s">
@@ -19643,7 +20801,7 @@
       <c r="F517" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G517" s="0">
+      <c r="G517" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H517" s="0" t="s">
@@ -19695,7 +20853,7 @@
       <c r="F519" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G519" s="0">
+      <c r="G519" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H519" s="0" t="s">
@@ -21931,7 +23089,7 @@
       <c r="F605" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G605" s="0">
+      <c r="G605" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H605" s="0" t="s">
@@ -21957,7 +23115,7 @@
       <c r="F606" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G606" s="0">
+      <c r="G606" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H606" s="0" t="s">
@@ -23465,7 +24623,7 @@
       <c r="F664" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G664" s="0">
+      <c r="G664" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H664" s="0" t="s">
@@ -23517,7 +24675,7 @@
       <c r="F666" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="G666" s="0">
+      <c r="G666" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H666" s="0" t="s">
@@ -25787,21 +26945,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="0" t="s">
@@ -26948,23 +28109,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.250000"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="4" max="4" width="17.33833334" customWidth="1" outlineLevel="0"/>
+    <col customWidth="1" max="4" min="4" style="1" width="17.33833334"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26983,7 +28147,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="0" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -26997,7 +28161,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="0" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -27011,7 +28175,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="0" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -27025,7 +28189,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="0" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
@@ -27039,7 +28203,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="0" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
@@ -27053,7 +28217,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="0" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>54</v>
@@ -27067,7 +28231,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="0" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>4</v>
@@ -27081,7 +28245,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="0" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>2</v>
@@ -27095,7 +28259,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="0" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>2</v>
@@ -27109,7 +28273,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="0" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>2</v>
@@ -27123,7 +28287,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="0" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>54</v>
@@ -27137,7 +28301,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="0" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>2</v>
@@ -27151,7 +28315,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="0" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>2</v>
@@ -27165,7 +28329,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="0" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>2</v>
@@ -27179,7 +28343,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="0" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>2</v>
@@ -27193,7 +28357,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="0" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>2</v>
@@ -27207,7 +28371,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="0" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>2</v>
@@ -27221,7 +28385,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="0" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>2</v>
@@ -27235,7 +28399,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="0" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>2</v>
@@ -27249,7 +28413,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="0" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>2</v>
@@ -27263,7 +28427,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="0" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>2</v>
@@ -27277,7 +28441,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="0" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>2</v>
@@ -27291,7 +28455,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="0" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>2</v>
@@ -27305,7 +28469,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="0" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>2</v>
@@ -27319,7 +28483,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="0" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>4</v>
@@ -27333,7 +28497,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="0" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>54</v>
@@ -27347,7 +28511,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="0" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>2</v>
@@ -27361,7 +28525,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="0" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>2</v>
@@ -27375,7 +28539,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="0" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>2</v>
@@ -27389,7 +28553,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="0" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>4</v>
@@ -27403,7 +28567,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="0" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>2</v>
@@ -27417,7 +28581,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="0" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>4</v>
@@ -27431,7 +28595,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="0" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>4</v>
@@ -27445,7 +28609,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="0" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>54</v>
@@ -27459,7 +28623,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="0" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>2</v>
@@ -27473,7 +28637,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="0" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>54</v>
@@ -27487,7 +28651,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="0" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>2</v>
@@ -27501,7 +28665,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="0" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>4</v>
@@ -27515,7 +28679,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="0" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>4</v>
@@ -27529,7 +28693,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="0" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>4</v>
@@ -27543,7 +28707,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="0" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>2</v>
@@ -27557,7 +28721,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="0" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>54</v>
@@ -27571,7 +28735,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="0" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>4</v>
@@ -27585,7 +28749,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="0" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>4</v>
@@ -27599,7 +28763,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="0" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>2</v>
@@ -27613,7 +28777,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="0" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>54</v>
@@ -27627,7 +28791,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="0" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>2</v>
@@ -27641,7 +28805,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="0" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>2</v>
@@ -27655,7 +28819,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="0" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>54</v>
@@ -27669,7 +28833,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="0" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>2</v>
@@ -27683,7 +28847,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="0" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>2</v>
@@ -27697,7 +28861,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="0" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>4</v>
@@ -27711,7 +28875,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="0" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>2</v>
@@ -27725,7 +28889,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="0" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>4</v>
@@ -27739,7 +28903,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="0" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>2</v>
@@ -27753,7 +28917,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="0" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>2</v>
@@ -27767,7 +28931,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="0" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>54</v>
@@ -27781,7 +28945,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="0" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>2</v>
@@ -27795,7 +28959,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="0" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>2</v>
@@ -27809,7 +28973,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="0" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>2</v>
@@ -27823,7 +28987,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="0" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>2</v>
@@ -27837,7 +29001,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="0" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>2</v>
@@ -27851,7 +29015,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="0" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>54</v>
@@ -27865,7 +29029,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="0" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>4</v>
@@ -27879,7 +29043,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="0" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>4</v>
@@ -27893,7 +29057,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="0" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>2</v>
@@ -27907,7 +29071,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="0" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>2</v>
@@ -27921,7 +29085,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="0" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>4</v>
@@ -27935,7 +29099,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="0" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>2</v>
@@ -27949,7 +29113,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="0" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>4</v>
@@ -27963,7 +29127,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="0" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>4</v>
@@ -27977,7 +29141,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="0" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>2</v>
@@ -27991,7 +29155,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="0" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>2</v>
@@ -28005,7 +29169,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="0" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>2</v>
@@ -28019,7 +29183,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="0" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>2</v>
@@ -28033,7 +29197,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="0" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>4</v>
@@ -28047,7 +29211,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="0" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>4</v>
@@ -28061,7 +29225,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="0" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>2</v>
@@ -28075,7 +29239,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="0" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>2</v>
@@ -28089,7 +29253,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="0" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>4</v>
@@ -28103,7 +29267,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="0" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>2</v>
@@ -28117,7 +29281,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="0" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>2</v>
@@ -28131,7 +29295,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="0" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>2</v>
@@ -28145,7 +29309,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="0" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>2</v>
@@ -28159,7 +29323,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="0" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>2</v>
@@ -28173,7 +29337,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="0" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>2</v>
@@ -28187,7 +29351,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="0" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>54</v>
@@ -28201,7 +29365,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="0" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>2</v>
@@ -28215,7 +29379,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="0" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>54</v>
@@ -28229,7 +29393,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="0" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>4</v>
@@ -28243,7 +29407,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="0" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>2</v>
@@ -28257,7 +29421,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="0" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>4</v>
@@ -28271,7 +29435,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="0" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>4</v>
@@ -28285,7 +29449,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="0" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>2</v>
@@ -28299,7 +29463,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="0" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>2</v>
@@ -28313,7 +29477,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="0" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>2</v>
@@ -28327,12 +29491,12 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="0" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D98" s="0" t="s">
@@ -28340,8 +29504,1987 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A392"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/app/armor_list.xlsx
+++ b/app/armor_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="2178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="2263">
   <si>
     <t>레더헤드</t>
   </si>
@@ -6552,6 +6552,261 @@
   </si>
   <si>
     <t>흔들흔들 티켓</t>
+  </si>
+  <si>
+    <t>(2)둔기 사용 : 예리도가 나쁠수록 공격력 상승. 원거리 무기의 근접공격 위력과 기절시킬 확률이 매우 크게 상승./(4)무속성 강화 : 장비 중인 무속성 무기를 강화한다.</t>
+  </si>
+  <si>
+    <t>(3)둔기 사용 : 예리도가 나쁠수록 공격력 상승.  원거리 무기의 근접공격 위력과 기절시킬 확률이 매우 크게 상승.</t>
+  </si>
+  <si>
+    <t>(2)분발 : 체력이 40% 이하가 되면 일정 시간 스태미나 소비량이 감소한다./(4)스태미나 한계 돌파 : 스태미나의 한계치가 증가한다.</t>
+  </si>
+  <si>
+    <t>(2)둔기 사용 : 예리도가 나쁠수록 공격력 상승. / 원거리 무기의 근접공격 위력과 기절시킬 확률이 매우 크게 상승.|(4)무속성 강화 : 장비 중인 무속성 무기를 강화한다.</t>
+  </si>
+  <si>
+    <t>(2)분발 : 체력이 40% 이하가 되면 일정 시간 스태미나 소비량이 감소한다.|(4)스태미나 한계 돌파 : 스태미나의 한계치가 증가한다.</t>
+  </si>
+  <si>
+    <t>(2)스태미나 한계 돌파 : 스태미나의 한계치가 증가한다.|(4)심안/탄도 강화 : 공격이 튕겨 나가지 않는다. / 탄과 화살이 최대 위력이 되기까지의 거리가 짧아진다.</t>
+  </si>
+  <si>
+    <t>(2)비연 [속성] : 점프 공격의 속성 대미지 UP|(4)달인의 재주 : 회심 발생 시 예리도가 소모되지 않는다.</t>
+  </si>
+  <si>
+    <t>(2)발도술 [힘] : 무기 발도 공격에 기절을 유발하는 힘이 추가 및 강화되며 공격력도 약간 오른다.|(4)칼날 연마 : 무기를 연마하면, 일정 시간 동안 예리도가 떨어지지 않는다.</t>
+  </si>
+  <si>
+    <t>(2)행운 : 퀘스트 클리어로 받는 보수의 수가 늘어날 확률이 높아진다. (퀘스트 도중에는 효과를 얻을 수 없음)|(4)활 모으기 단계 해제 : 활의 모으기 단계가 1단계 증가.</t>
+  </si>
+  <si>
+    <t>(2)회심격 [속성] : 공격으로 회심이 발생했을 때 주는 속성 데미지 (불, 물, 번개, 얼음, 용)가 높아진다.|(4)심안/탄도 강화 : 공격이 튕겨 나가지 않는다. / 탄과 화살이 최대 위력이 되기까지의 거리가 짧아진다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 일부 아이템을 사용했을 때 효과의 1/3을 주위 동료에게도 준다.|Lv.2 : 일부 아이템을 사용했을 때 효과의 1/3을 넓은 범위의 동료에게도 준다.|Lv.3 : 일부 아이템을 사용했을 때 효과의 2/3을 넓은 범위의 동료에게도 준다.|Lv.4 : 일부 아이템을 사용했을 때 효과의 2/3을 꽤 넓은 범위의 동료에게도 준다.|Lv.5 : 일부 아이템을 사용했을 때 동일한 효과를 꽤 넓은 범위의 동료에게도 준다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 속도가 조금 상승한다.|Lv.2 : 속도가 상승한다.|Lv.3 : 속도가 많이 상승한다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 동반자의 공격력과 방어력이 1.05배|Lv.2 : 동반자의 공격력과 방어력이 1.1배|Lv.3 : 동반자의 공격력과 방어력이 1.15배|Lv.4 : 동반자의 공격력과 방어력이 1.2배|Lv.5 : 동반자의 공격력과 방어력이 1.25배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 면 포자풀 사용시 체력을 20 회복한다.|Lv.2 : 면 포자풀 사용시 체력을 35 회복한다.|Lv.3 : 면 포자풀 사용시 체력을 60 회복한다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 푸른 버섯과 독광대버섯을 먹을 수 있게 되며 좋은 효과를 얻을 수 있다|Lv.2 : 추가로 니트로 버섯, 마비 버섯을 먹을 수 있게 되며 좋은 효과를 얻을 수 있다|Lv.3 : 추가로 만드라고라, 도깨비 니트로버섯, 두근두근 버섯을 먹을 수 있게 되며 좋은 효과를 얻을 수 있다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 먹는 속도가 조금 상승한다|Lv.2 : 먹는 속도가 상승한다|Lv.3 : 먹는 속도가 많이 상승한다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 지면이나 식물에서 획득할 수 있는 탄의 장전 수가 조금 증가한다|Lv.2 : 그리고 몬스터가 떨어뜨리는 일부 탄의 장전 수가 조금 증가한다|Lv.3 : 그리고 몬스터가 떨어뜨리는 모든 탄의 장전 수가 조금 증가한다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 일부 아이템의 효과 시간  1.1배|Lv.2 : 일부 아이템의 효과 시간  1.25배|Lv.3 : 일부 아이템의 효과 시간  1.5배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 들켜도 전투 상태가 될 확률이 낮다.|Lv.2 : 들켜도 전투 상태가 될 확률이 매우 낮다.|Lv.3 : 들켜도 전투 상태가 되지 않는다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 몬스터에게서 은신에 성공 확률이 조금 증가한다.|Lv.2 : 몬스터에게서 은신에 성공 확률이 증가한다.|Lv.3 : 몬스터에게서 은신에 성공 확률이 많이 증가한다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 특수 장비의 재사용 시간 5% 단축|Lv.2 : 특수 장비의 재사용 시간 10% 단축|Lv.3 : 특수 장비의 재사용 시간 20% 단축</t>
+  </si>
+  <si>
+    <t>Lv.1 : 물가에서 이동 속도 감소 없음.|Lv.2 : 물가에서 이동 속도가 감소하지 않으며 물가에서 회피 성능 향상.|Lv.3 : 물가에서 이동 속도가 감소하지 않으며 물가에서 회피 성능 크게 향상.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 대시 등 서서히 스태미나를 소모하는 행동의 스태미나 소모량 15% 감소|Lv.2 : 대시 등 서서히 스태미나를 소모하는 행동의 스태미나 소모량 30% 감소|Lv.3 : 대시 등 서서히 스태미나를 소모하는 행동의 스태미나 소모량 50% 감소</t>
+  </si>
+  <si>
+    <t>Lv.1 : 스태미나 게이지의 감소까지 걸리는 시간을 30% 연장.|Lv.2 : 스태미나 게이지의 감소까지 걸리는 시간을 60% 연장.Lv.3 : 시간 경과에 따른 스태미나 게이지의 감소 무효화.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 스태미나 게이지의 감소까지 걸리는 시간을 30% 연장.|Lv.2 : 스태미나 게이지의 감소까지 걸리는 시간을 60% 연장.|Lv.3 : 시간 경과에 따른 스태미나 게이지의 감소 무효화.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 스태미나 회복 속도 1.1배|Lv.2 : 스태미나 회복 속도 1.2배|Lv.3 : 스태미나 회복 속도 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 회피 등 고정으로 스태미나가 소모되는 행동의 고정 스태미나 소모량 10% 감소|Lv.2 : 회피 등 고정으로 스태미나가 소모되는 행동의 고정 스태미나 소모량 20% 감소|Lv.3 : 회피 등 고정으로 스태미나가 소모되는 행동의 고정 스태미나 소모량 30% 감소|Lv.4 : 회피 등 고정으로 스태미나가 소모되는 행동의 고정 스태미나 소모량 40% 감소|Lv.5 : 회피 등 고정으로 스태미나가 소모되는 행동의 고정 스태미나 소모량 50% 감소</t>
+  </si>
+  <si>
+    <t>Lv.1 : 곤충종 소형 몬스터의 사체가 남는 확률이 상승한다|Lv.2 : 곤충종 소형 몬스터의 사체가 남는 확률이 상당히 상승한다|Lv.3 : 곤충종 소형 몬스터의 사체가 반드시 남는다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 약초 등의 풀 계열 소비 아이템의 취득 수+1|Lv.2 : 추가로 열매나 씨앗 계열 소비 아이템의 취득 수+1|Lv.3 : 추가로 곤충 소비 아이템의 취득 수+1|Lv.4 : 추가로 버섯 소비 아이템의 취득 수+1</t>
+  </si>
+  <si>
+    <t>Lv.1 : 뼈 채취 포인트의 채취 횟수+1|Lv.2 : 추가로 특산품 채취 포인트의 채취 횟수+1|Lv.3 : 추가로 광석 채굴 포인트의 채취 횟수+1</t>
+  </si>
+  <si>
+    <t>Lv.1 : 공격의 위력을 조금 감소.|Lv.2 : 공격의 위력을 조금 감소.  스태미나 소모량을 15% 감소.|Lv.3 : 공격의 위력을 크게 감소.  스태미나 소모량을 15% 감소.|Lv.4 : 공격의 위력을 크게 감소.  스태미나 소모량을 30% 감소.|Lv.5 : 공격의 위력을 아주 크게 감소.  스태미나 소모량을 50% 감소.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 기절 상태의 시간을 30% 줄인다|Lv.2 : 기절 상태의 시간을 60% 줄인다|Lv.3 : 기절 상태가 되지 않는다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 진동 [소]를 무효화한다|Lv.2 : 진동 [소]를 무효화하고 진동 [대]의 영향이 줄어든다.|Lv.3 : 진동 [소] [대]를 무효화한다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 독 상태의 시간을 30% 줄인다|Lv.2 : 독 상태의 시간을 60% 줄인다|Lv.3 : 독 상태가 되지 않는다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 독기의 침식을 억제한다.|Lv.2 : 독기의 침식을 많이 억제한다.|Lv.3 : 독기의 침식 상태를 무효화한다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 마비 상태의 시간을 30% 줄인다|Lv.2 : 마비 상태의 시간을 60% 줄인다|Lv.3 : 마비 상태가 되지 않는다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 물 내성+6|Lv.2 : 물 내성+12|Lv.3 : 물 내성+20, 방어력+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 방어력+5|Lv.2 : 방어력+10|Lv.3 : 방어력+15|Lv.4 : 방어력+20 , 모든 속성 내성치+3|Lv.5 : 방어력+25 , 모든 속성 내성치+3|Lv.6 : 방어력+30 , 모든 속성 내성치+3|Lv.7 : 방어력+35 , 모든 속성 내성치+3</t>
+  </si>
+  <si>
+    <t>Lv.1 : 방어력 DOWN 상태의 시간을 30% 줄인다.|Lv.2 : 방어력 DOWN 상태의 시간을 60% 줄인다.|Lv.3 : 방어력 DOWN 상태가 되지 않는다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 번개 내성+6|Lv.2 : 번개 내성+12|Lv.3 : 번개 내성+20, 방어력+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 불 내성+6|Lv.2 : 불 내성+12|Lv.3 : 불 내성+20, 방어력+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 모든 속성 피해의 효과 시간을 30% 줄인다|Lv.2 : 모든 속성 피해의 효과 시간을 60% 줄인다|Lv.3 : 모든 속성 피해를 무효화한다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 수면 상태의 시간을 30% 줄인다|Lv.2 : 수면 상태의 시간을 60% 줄인다|Lv.3 : 수면 상태가 되지 않는다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 얼음 내성+6|Lv.2 : 얼음 내성+12|Lv.3 : 얼음 내성+20, 방어력+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 열상 상태에 의한 데미지를 경감한다|Lv.2 : 열상 상태에 의한 데미지를 크게 경감한다|Lv.3 : 열상 상태가 되지 않는다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 용 내성+6|Lv.2 : 용 내성+12|Lv.3 : 용 내성+20, 방어력+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 움츠리지 않음.|Lv.2 : 움츠리지 않음. 엉덩방아를 움츠림으로 감소시킨다.|Lv.3 : 움츠림, 엉덩방아를 무효화</t>
+  </si>
+  <si>
+    <t>Lv.1 : 플레이어가 받는 데미지를 일정 확률로 15% 감소한다|Lv.2 : 플레이어가 받는 데미지를 일정 확률로 30% 감소한다|Lv.3 : 플레이어가 받는 데미지를 일정 확률로 50% 감소한다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 체력+15|Lv.2 : 체력+30|Lv.3 : 체력+50</t>
+  </si>
+  <si>
+    <t>Lv.1 : 회복량 1.1배|Lv.2 : 회복량 1.2배|Lv.3 : 회복량 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 폭파까지의 시간이 연장되고, 폭파 데미지가 줄어든다.|Lv.2 : 폭파까지의 시간이 더욱 연장되고, 폭파 데미지가 크게 줄어든다.|Lv.3 : 폭파 피해를 받지 않는다.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 풍압 [소]를 조금 줄인다|Lv.2 : 풍압 [소]를 줄인다|Lv.3 : 풍압 [소]를 무효화한다|Lv.4 : 풍압 [소]를 무효화하고 풍압 [대]를 줄인다|Lv.5 : 풍압 [대]를 무효화한다</t>
+  </si>
+  <si>
+    <t>Lv.1 : 붉은 게이지의 자동 회복 속도 2배|Lv.2 : 붉은 게이지의 자동 회복 속도 3배|Lv.3 : 붉은 게이지의 자동 회복 속도 4배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 회피 거리가 조금 연장.|Lv.2 : 회피 거리가 연장.|Lv.3 : 회피 거리가 크게 연장.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 무적 시간이 아주 조금 연장.|Lv.2 : 무적 시간이 조금 연장.|Lv.3 : 무적 시간이 연장.|Lv.4 : 무적 시간이 크게 연장.|Lv.5 : 무적 시간이 아주 크게 연장.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 몬스터에 대한 공격의 기절 위력이 1.1배|Lv.2 : 몬스터에 대한 공격의 기절 위력이 1.2배|Lv.3 : 몬스터에 대한 공격의 기절 위력이 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 회심률+3%|Lv.2 : 회심률+6%|Lv.3 : 회심률+10%|Lv.4 : 회심률+15%|Lv.5 : 회심률+20%|Lv.6 : 회심률+25%|Lv.7 : 회심률+30%</t>
+  </si>
+  <si>
+    <t>Lv.1 : 태도, 쌍검, 조충곤, 슬래시 액스, 차지 액스의 강화 상태 지속 시간 1.1배|Lv.2 : 태도, 쌍검, 조충곤, 슬래시 액스, 차지 액스의 강화 상태 지속 시간 1.2배|Lv.3 : 태도, 쌍검, 조충곤, 슬래시 액스, 차지 액스의 강화 상태 지속 시간 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 기초 공격력+3|Lv.2 : 기초 공격력+6|Lv.3 : 기초 공격력+9|Lv.4 : 기초 공격력+12, 회심률+5％|Lv.5 : 기초 공격력+15, 회심률+5%|Lv.6 : 기초 공격력+18, 회심률+5%|Lv.7 : 기초 공격력+21, 회심률+5%</t>
+  </si>
+  <si>
+    <t>Lv.1 : 대형 몬스터 분노시 기초 공격력+4 회심률+3%|Lv.2 : 대형 몬스터 분노시 기초 공격력+8 회심률+6%|Lv.3 : 대형 몬스터 분노시 기초 공격력+12 회심률+9%|Lv.4 : 대형 몬스터 분노시 기초 공격력+16 회심률+12%|Lv.5 : 대형 몬스터 분노시 기초 공격력+20 회심률+15%</t>
+  </si>
+  <si>
+    <t>Lv.1 : 독 축적치가 1.05배가 되고 독의 축적치에+10|Lv.2 : 독 축적치가 1.1배가 되고 독의 축적치에+10|Lv.3 : 독 축적치가 1.2배가 되고 독의 축적치에+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 마비 축적치가 1.05배가 되고 마비의 축적치에+10|Lv.2 : 마비 축적치가 1.1배가 되고 마비의 축적치에+10|Lv.3 : 마비 축적치가 1.2배가 되고 마비의 축적치에+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 물속성 공격치+30|Lv.2 : 물속성 공격치+60|Lv.3 : 물속성 공격치+100|Lv.4 : 물속성 공격치가 1.05배가 되고 물속성 공격치+100|Lv.5 : 물속성 공격치가 1.1배가 되고 물속성 공격치+100</t>
+  </si>
+  <si>
+    <t>Lv.1 : 발도 공격 회심률+30%|Lv.2 : 발도 공격 회심률+60%|Lv.3 : 발도 공격 회심률+100%</t>
+  </si>
+  <si>
+    <t>Lv.1 : 번개속성 공격치+30|Lv.2 : 번개속성 공격치+60|Lv.3 : 번개속성 공격치+100|Lv.4 : 번개속성 공격치가 1.05배가 되고 번개속성 공격치+100|Lv.5 : 번개속성 공격치가 1.1배가 되고 번개속성 공격치+100</t>
+  </si>
+  <si>
+    <t>Lv.1 : 폭탄 계열 아이템의 위력 1.1배|Lv.2 : 폭탄 계열 아이템의 위력 1.2배|Lv.3 : 폭탄 계열 아이템의 위력 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 불속성 공격치+30|Lv.2 : 불속성 공격치+60|Lv.3 : 불속성 공격치+100|Lv.4 : 불속성 공격치가 1.05배가 되고, 불속성 공격치에+100|Lv.5 : 불속성 공격치가 1.1배가 되고, 불속성 공격치에+100</t>
+  </si>
+  <si>
+    <t>Lv.1 : 숨은 속성의 1/3을 이끌어낸다. / 일부 탄의 장전 수 증가.|Lv.2 : 숨은 속성의 2/3을 이끌어낸다. / 여러 탄의 장전 수 증가.|Lv.3 : 숨은 속성을 100% 이끌어낸다. / 거의 모든 탄의 장전 수 증가.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 수면 축적치가 1.05배가 되고 수면의 축적치에+10|Lv.2 : 수면 축적치가 1.1배가 되고 수면의 축적치에+10|Lv.3 : 수면 축적치가 1.2배가 되고 수면의 축적치에+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 연마 동작을 1회 생략.|Lv.2 : 연마 동작을 2회 생략.|Lv.3 : 연마 동작을 3회 생략.</t>
+  </si>
+  <si>
+    <t>Lv.1 : 회심 공격 시의 데미지 배율 1.3배|Lv.2 : 회심 공격 시의 데미지 배율 1.35배|Lv.3 : 회심 공격 시의 데미지 배율 1.4배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 기력 감소 위력 1.1배|Lv.2 : 기력 감소 위력 1.2배|Lv.3 : 기력 감소 위력 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 체력 게이지에 빨간 부분이 있는 동안 기초 공격력+5|Lv.2 : 체력 게이지에 빨간 부분이 있는 동안 기초 공격력+10|Lv.3 : 체력 게이지에 빨간 부분이 있는 동안 기초 공격력+15|Lv.4 : 체력 게이지에 빨간 부분이 있는 동안 기초 공격력+20|Lv.5 : 체력 게이지에 빨간 부분이 있는 동안 기초 공격력+25</t>
+  </si>
+  <si>
+    <t>Lv.1 : 얼음 속성 공격치+30|Lv.2 : 얼음 속성 공격치+60|Lv.3 : 얼음 속성 공격치+100|Lv.4 : 얼음 속성 공격치가 1.05배가 되고 얼음 속성 공격치+100|Lv.5 : 얼음 속성 공격치가 1.1배가 되고 얼음 속성 공격치+100</t>
+  </si>
+  <si>
+    <t>Lv.1 : 체력이 최대일때 기초 공격력+5|Lv.2 : 체력이 최대일때 기초 공격력+10|Lv.3 : 체력이 최대일때 기초 공격력+20</t>
+  </si>
+  <si>
+    <t>Lv.1 : 용속성 공격치+30|Lv.2 : 용속성 공격치+60|Lv.3 : 용속성 공격치+100|Lv.4 : 용속성 공격치가 1.05배가 되고 용속성 공격치+100|Lv.5 : 용속성 공격치가 1.1배가 되고 용속성 공격치+100</t>
+  </si>
+  <si>
+    <t>Lv.1 : 무기의 예리도+10|Lv.2 : 무기의 예리도+20|Lv.3 : 무기의 예리도+30|Lv.4 : 무기의 예리도+40|Lv.5 : 무기의 예리도+50</t>
+  </si>
+  <si>
+    <t>Lv.1 : 체력이 최대치의 35% 이하일 때 공격력1.05배, 방어력+15|Lv.2 : 체력이 최대치의 35% 이하일 때 공격력1.1배, 방어력+20|Lv.3 : 체력이 최대치의 35% 이하일 때 공격력1.15배, 방어력+25|Lv.4 : 체력이 최대치의 35% 이하일 때 공격력1.2배, 방어력+30|Lv.5 : 체력이 최대치의 35% 이하일 때 공격력1.3배, 방어력+40</t>
+  </si>
+  <si>
+    <t>Lv.1 : 태도, 쌍검, 슬래시 액스, 차지 액스의 게이지 상승률 5% UP / 대검, 해머, 활의 모으는 시간 5% 단축|Lv.2 : 태도, 쌍검, 슬래시 액스, 차지 액스의 게이지 상승률 10% UP / 대검, 해머, 활의 모으는 시간 10% 단축|Lv.3 : 태도, 쌍검, 슬래시 액스, 차지 액스의 게이지 상승률 20% UP / 대검, 해머, 활의 모으는 시간 20% 단축</t>
+  </si>
+  <si>
+    <t>Lv.1 : 보우건의 특수탄과 활의 용화살의 위력이 1.1배|Lv.2 : 보우건의 특수탄과 활의 용화살의 위력이 1.2배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 부위에 대한 축적 데미지 1.1배|Lv.2 : 부위에 대한 축적 데미지 1.2배|Lv.3 : 부위에 대한 축적 데미지 1.3배</t>
+  </si>
+  <si>
+    <t>Lv.1 : 건랜스의 포격, 용격포와 차지액스의 병공격, 철갑유탄 등 폭발 공격의 위력이 1.1배, 용격포의 냉각시간이 15% 감소|Lv.2 : 건랜스의 포격, 용격포와 차지액스의 병공격, 철갑유탄 등 폭발 공격의 위력이 1.2배, 용격포의 냉각시간이 30% 감소|Lv.3 : 건랜스의 포격, 용격포와 차지액스의 병공격, 철갑유탄 등 폭발 공격의 위력이 1.3배, 용격포의 냉각시간이 50% 감소</t>
+  </si>
+  <si>
+    <t>Lv.1 : 폭파 축적치가 1.05배가 되고 폭파의 축적치에+10|Lv.2 : 폭파 축적치가 1.1배가 되고 폭파의 축적치에+10|Lv.3 : 폭파 축적치가 1.2배가 되고 폭파의 축적치에+10</t>
+  </si>
+  <si>
+    <t>Lv.1 : 스태미나 게이지가 가득 차있을 경우 회심률+10%|Lv.2 : 스태미나 게이지가 가득 차있을 경우 회심률+20%|Lv.3 : 스태미나 게이지가 가득 차있을 경우 회심률+30%</t>
+  </si>
+  <si>
+    <t>Lv.1 : 특정 조건에서 회심률 +10% 스태미나 소비량 10% 감소|Lv.2 : 특정 조건에서 회심률 +20% 스태미나 소비량 20% 감소|Lv.3 : 특정 조건에서 회심률 +30% 스태미나 소비량 30% 감소|Lv.4 : 특정 조건에서 회심률 +40% 스태미나 소비량 40% 감소|Lv.5 : 특정 조건에서 회심률 +50% 스태미나 소비량 50% 감소</t>
   </si>
 </sst>
 </file>
@@ -6870,9 +7125,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -6887,9 +7140,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -6898,9 +7149,7 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -6909,9 +7158,7 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -6920,9 +7167,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -6937,9 +7182,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -6954,9 +7197,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -6971,9 +7212,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -6982,9 +7221,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -6995,9 +7232,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -7377,17 +7612,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L753"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000" customHeight="1"/>
   <cols>
-    <col min="6" max="6" style="1" width="17.67166731" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="1" width="19.67166731" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="1" width="9.00500033" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="1" width="9.00500033" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="12" style="1" width="41.44944594" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="1" width="17.71928488" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="1" width="19.71928488" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" style="1" width="41.43356977" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -26979,18 +27214,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="B112" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="255.71929060" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="0" t="s">
         <v>1402</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1403</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -27022,7 +27261,7 @@
         <v>1410</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1411</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -27070,7 +27309,7 @@
         <v>1422</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1423</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -27086,7 +27325,7 @@
         <v>1426</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1427</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -27102,7 +27341,7 @@
         <v>1430</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1431</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -27134,7 +27373,7 @@
         <v>1438</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1439</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -27150,7 +27389,7 @@
         <v>1442</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1443</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -27190,7 +27429,7 @@
         <v>1452</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1453</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -27198,7 +27437,7 @@
         <v>1454</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1455</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -27214,7 +27453,7 @@
         <v>1458</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1459</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -27246,7 +27485,7 @@
         <v>1466</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1467</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -27254,7 +27493,7 @@
         <v>1468</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1469</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -27270,7 +27509,7 @@
         <v>1472</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1473</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -27294,7 +27533,7 @@
         <v>1478</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1479</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -27302,7 +27541,7 @@
         <v>1480</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>1481</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -27334,7 +27573,7 @@
         <v>1488</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>1489</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -27342,7 +27581,7 @@
         <v>1490</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>1491</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -27358,7 +27597,7 @@
         <v>1494</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>1495</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -27414,7 +27653,7 @@
         <v>1508</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>1509</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -27430,7 +27669,7 @@
         <v>1512</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>1513</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -27438,7 +27677,7 @@
         <v>1514</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>1515</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -27446,7 +27685,7 @@
         <v>1516</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>1517</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -27454,7 +27693,7 @@
         <v>1518</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>1519</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -27494,7 +27733,7 @@
         <v>1528</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>1529</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -27510,7 +27749,7 @@
         <v>1532</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>1533</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -27526,7 +27765,7 @@
         <v>1536</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>1537</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -27566,7 +27805,7 @@
         <v>1546</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>1547</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -27582,7 +27821,7 @@
         <v>1550</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>1551</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -27590,7 +27829,7 @@
         <v>1552</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>1553</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -27598,7 +27837,7 @@
         <v>1554</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>1555</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -27606,7 +27845,7 @@
         <v>1556</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>1557</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -27622,7 +27861,7 @@
         <v>1560</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>1561</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -27630,7 +27869,7 @@
         <v>1562</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>1563</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -27638,7 +27877,7 @@
         <v>1564</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>1565</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -27646,7 +27885,7 @@
         <v>1566</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>1567</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -27654,7 +27893,7 @@
         <v>1568</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>1569</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -27662,7 +27901,7 @@
         <v>1570</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>1571</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -27670,7 +27909,7 @@
         <v>1572</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1573</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -27678,7 +27917,7 @@
         <v>1574</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1575</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -27686,7 +27925,7 @@
         <v>1576</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>1577</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -27694,7 +27933,7 @@
         <v>1578</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>1579</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -27702,7 +27941,7 @@
         <v>1580</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>1581</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -27710,7 +27949,7 @@
         <v>1582</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>1583</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -27718,7 +27957,7 @@
         <v>1584</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>1585</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -27734,7 +27973,7 @@
         <v>1588</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>1589</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -27742,7 +27981,7 @@
         <v>1590</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1591</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -27750,7 +27989,7 @@
         <v>1592</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>1593</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -27758,7 +27997,7 @@
         <v>1594</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1595</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -27766,7 +28005,7 @@
         <v>1596</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1597</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -27774,7 +28013,7 @@
         <v>1598</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>1599</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -27782,7 +28021,7 @@
         <v>1600</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>1601</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -27790,7 +28029,7 @@
         <v>1602</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>1603</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -27798,7 +28037,7 @@
         <v>1604</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1605</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -27806,7 +28045,7 @@
         <v>1606</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>1607</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -27814,7 +28053,7 @@
         <v>1608</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>1609</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -27830,7 +28069,7 @@
         <v>1612</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>1613</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -27838,7 +28077,7 @@
         <v>1614</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>1615</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -27846,7 +28085,7 @@
         <v>1616</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1617</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -27870,7 +28109,7 @@
         <v>1622</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>1623</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -27878,7 +28117,7 @@
         <v>1624</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>1625</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -27886,7 +28125,7 @@
         <v>1626</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>1627</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -27894,7 +28133,7 @@
         <v>1628</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>1629</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -27902,7 +28141,7 @@
         <v>1630</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>1631</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -27926,7 +28165,7 @@
         <v>1636</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>1637</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -27934,7 +28173,7 @@
         <v>1638</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>1639</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -27942,7 +28181,7 @@
         <v>1640</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>1641</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -27950,7 +28189,7 @@
         <v>1642</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>1643</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -27958,7 +28197,7 @@
         <v>1644</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>1645</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -27974,7 +28213,7 @@
         <v>1648</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>1649</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -27990,7 +28229,7 @@
         <v>1652</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>1653</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -27998,7 +28237,7 @@
         <v>1654</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>1655</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -28014,7 +28253,7 @@
         <v>1658</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>1659</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -28022,7 +28261,7 @@
         <v>1660</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>1661</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -28030,7 +28269,7 @@
         <v>1662</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>1663</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -28038,7 +28277,7 @@
         <v>1664</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>1665</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -28070,7 +28309,7 @@
         <v>1672</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>1673</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -28078,7 +28317,7 @@
         <v>1674</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>1675</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -28086,7 +28325,7 @@
         <v>1676</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>1677</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -28102,7 +28341,7 @@
         <v>1680</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>1681</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -28110,7 +28349,7 @@
         <v>1682</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>1683</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -28126,7 +28365,7 @@
         <v>1686</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>1687</v>
+        <v>2262</v>
       </c>
     </row>
   </sheetData>
@@ -28146,7 +28385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
   <cols>
-    <col min="4" max="4" style="1" width="17.33833334" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="1" width="17.29071508" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
